--- a/task_list.xlsx
+++ b/task_list.xlsx
@@ -109,7 +109,7 @@
     <t>H/w version</t>
   </si>
   <si>
-    <t>read gpio pin status </t>
+    <t>read gpio pin status</t>
   </si>
   <si>
     <t>kernel GPIO configuration, shell scripting, Kernel rebuild</t>
@@ -163,7 +163,7 @@
     <t>Skill's</t>
   </si>
   <si>
-    <t>C designing skills</t>
+    <t>C designing skills (code walk through)</t>
   </si>
   <si>
     <t>valgrind &amp; gdb tools</t>
@@ -202,7 +202,7 @@
     <t>cron job</t>
   </si>
   <si>
-    <t>debian package management/ creating </t>
+    <t>debian package management/ creating</t>
   </si>
   <si>
     <t>Build rootfs</t>
@@ -214,19 +214,19 @@
     <t>linaro rootfs basics</t>
   </si>
   <si>
+    <t>linux rootfs/ kernel porting (NFS &amp; USB boot)</t>
+  </si>
+  <si>
+    <t>C++ programming</t>
+  </si>
+  <si>
+    <t>python programming</t>
+  </si>
+  <si>
+    <t>mongoose</t>
+  </si>
+  <si>
     <t>qemu virtual system</t>
-  </si>
-  <si>
-    <t>linux rootfs/ kernel porting (NFS &amp; USB boot)</t>
-  </si>
-  <si>
-    <t>C++ programming</t>
-  </si>
-  <si>
-    <t>python programming</t>
-  </si>
-  <si>
-    <t>mongoose</t>
   </si>
 </sst>
 </file>
@@ -348,16 +348,16 @@
   <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E20" activeCellId="0" pane="topLeft" sqref="E20"/>
+      <selection activeCell="E20" activeCellId="1" pane="topLeft" sqref="B29:B31 E20"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.46666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.1764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="50.6862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="63.2549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="19.8705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.49411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.321568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="50.9372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="63.5725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="19.9686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="4" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
@@ -587,16 +587,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B32"/>
+  <dimension ref="A2:B31"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B32" activeCellId="0" pane="topLeft" sqref="B32"/>
+      <selection activeCell="B29" activeCellId="0" pane="topLeft" sqref="B29:B31"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="6.18823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="6.22352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
@@ -705,23 +705,23 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="B28" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="B27" s="0" t="s">
         <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="B30" s="0" t="s">
         <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="B31" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="B32" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>69</v>
       </c>
     </row>
@@ -744,11 +744,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B29:B31 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
